--- a/notionconverted/notion_피드.xlsx
+++ b/notionconverted/notion_피드.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>feed/rising_hashtag</t>
+          <t>feed/rising_hashfeed_tag</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,12 +496,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>feed/rising_hashtag</t>
+          <t>feed/rising_hashfeed_tag</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>탭 클릭/스와이프</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,46 +521,42 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{page_id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>feed/rising_hashtag</t>
+          <t>feed/rising_hashfeed_tag</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>탭 스와이프</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>page_id, swipe_text</t>
+          <t>page_id, scroll_rate</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{page_id}}, {{어느 콘텐츠까지 봤나, 해시태그}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>feed/rising_hashtag</t>
+          <t>feed/rising_hashfeed_tag</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -580,12 +576,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, feedType</t>
+          <t>page_id, feed_id, feed_writer, feed_tag, feed_type</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{해시태그 타이틀}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{피드id}}, {{피드 작성자 프로필id}}, {{해시태그 타이틀}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -625,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>탭 클릭/스와이프</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{page_id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -657,27 +653,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>탭 스와이프</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>page_id, swipe_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{PageID, 어느 콘텐츠까지 봤나, 피드 id}}</t>
         </is>
       </c>
     </row>
@@ -704,12 +696,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드id}}, {{피드 작성자 프로필id}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -764,12 +756,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>page_id, ad_id</t>
+          <t>page_id, ad_id, click_text</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, {{네트워크 광고 ID}}, {{클릭한 광고제목}}</t>
         </is>
       </c>
     </row>
@@ -809,7 +801,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>탭 클릭/스와이프</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -829,7 +821,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{page_id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -841,27 +833,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>탭 스와이프</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>page_id, swipe_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{요즘뜨는#/발견/팔로잉}}</t>
+          <t>{{PageID, 어느 콘텐츠까지 봤나, 피드 id}}</t>
         </is>
       </c>
     </row>
@@ -888,12 +876,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드id}}, {{피드 작성자 프로필id}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -948,12 +936,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>page_id, click_text, ad_id</t>
+          <t>page_id, ad_id, click_text</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 광고제목}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, {{네트워크 광고 ID}}, {{클릭한 광고제목}}</t>
         </is>
       </c>
     </row>
@@ -981,7 +969,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{{page_id}}</t>
+          <t>{{PageID}}</t>
         </is>
       </c>
     </row>
@@ -1004,12 +992,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>page_id, kwd_recent</t>
+          <t>page_id, recent_kwd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{최근 검색어}}</t>
+          <t>{{PageID}}, {{최근 검색어}}</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1019,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>검색어</t>
+          <t>최근 검색어</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>page_id, click_text, kwd_recent</t>
+          <t>page_id, recent_kwd</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한텍스트명}}, {{최근 검색어}}</t>
+          <t>{{PageID}}, {{최근 검색어}}</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1052,12 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>page_id, kwd_recomm</t>
+          <t>page_id, rcmd_kwd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{추천 검색어}}</t>
+          <t>{{PageID}}, {{추천 검색어}}</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1079,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>검색어</t>
+          <t>추천 검색어</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>page_id, click_text, kwd_recomm</t>
+          <t>page_id, rcmd_kwd</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한텍스트명}}, {{추천 검색어}}</t>
+          <t>{{PageID}}, {{추천 검색어}}</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1111,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>검색어</t>
+          <t>검색 아이콘</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>page_id, click_text, kwd_text</t>
+          <t>page_id, srch_kwd</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{{page_id}}, 검색아이콘, {{검색 키워드}}</t>
+          <t>{{PageID}}, {{검색 키워드}}</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1144,12 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>page_id, kwd_text</t>
+          <t>page_id, srch_kwd</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{검색 키워드}}</t>
+          <t>{{PageID}}, {{검색 키워드}}</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1161,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>탭 클릭/스와이프</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1193,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드/프로필}}</t>
+          <t>{{PageID}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>스크롤</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1216,12 +1204,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>page_id, scroll_rate</t>
+          <t>page_id, feed_id</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{scroll_rate}}</t>
+          <t>{{PageID}}, {{어느 콘텐츠까지 봤나, 피드 id}}</t>
         </is>
       </c>
     </row>
@@ -1248,12 +1236,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>page_id, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, feed_id, feed_writer, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{PageID}}, {{피드id}}, {{피드 작성자 프로필id}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1264,12 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>page_id, kwd_text</t>
+          <t>page_id, srch_kwd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{검색 키워드}}</t>
+          <t>{{PageID}}, {{검색 키워드}}</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1281,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>탭 클릭/스와이프</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1313,7 +1301,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드/프로필}}</t>
+          <t>{{PageID}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1323,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>프로필</t>
+          <t>피드 프로필</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>page_id, profileSeq</t>
+          <t>page_id, profile_id</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{프로필 id}}</t>
+          <t>{{PageID}}, {{프로필 id}}</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1356,12 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>page_id, kwd_text</t>
+          <t>page_id, srch_kwd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{검색 키워드}}</t>
+          <t>{{PageID}}, {{검색 키워드}}</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1384,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>page_id, profileSeq</t>
+          <t>page_id, feed_writer</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1428,12 +1416,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, {{추천/피드/컬랙션/리뷰}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1433,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>피드 게시물 클릭</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>피드게시물</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>page_id, click_text, profileSeq, feedSeq</t>
+          <t>page_id, feed_writer, feed_id</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{주인 프로필 id}}, {{피드 id}}</t>
+          <t>{{PageID}}, {{주인 프로필 id}}, {{피드 id}}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1461,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>스토어 버튼 클릭</t>
+          <t>피드 게시물 클릭</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1487,45 +1471,49 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>스토어버튼</t>
+          <t>피드게시물</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_type</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, 스토어</t>
+          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드id}}, {{주인 프로필 id}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>feed/profile/collection</t>
+          <t>feed/profile/feed</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>화면 조회</t>
+          <t>스토어 버튼 클릭</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>스토어버튼</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>page_id, profileSeq</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{버튼 이름}}</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1525,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>화면 조회</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>탭</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, feed_writer</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, {{추천/피드/컬랙션/리뷰}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1553,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>스토어 버튼 클릭</t>
+          <t>탭 클릭</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1579,17 +1563,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>스토어버튼</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, 스토어</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1601,67 +1585,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>피드 게시물 클릭</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>피드게시물</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>page_id, click_text, profileSeq, feedSeq</t>
+          <t>page_id, feed_writer, feed_id</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{주인 프로필 id}}, {{피드 id}}</t>
+          <t>{{PageID}}, {{주인 프로필 id}}, {{피드 id}}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>feed/profile/review</t>
+          <t>feed/profile/collection</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>화면 조회</t>
+          <t>스토어 버튼 클릭</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>스토어버튼</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>page_id, profileSeq</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{버튼 이름}}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>feed/profile/review</t>
+          <t>feed/profile/collection</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>피드 게시물 클릭</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1671,17 +1655,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>피드게시물</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_type</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, {{추천/피드/컬랙션/리뷰}}</t>
+          <t>{{page_id}}, {{클릭한 피드의 제목}}, {{피드id}}, {{주인 프로필 id}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -1693,27 +1677,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>스토어 버튼 클릭</t>
+          <t>화면 조회</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>스토어버튼</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, feed_writer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, 스토어</t>
+          <t>{{page_id}}, {{주인 프로필 id}}</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1705,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>리뷰 상품 클릭</t>
+          <t>탭 클릭</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1735,17 +1715,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>리뷰상품</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>page_id, click_text, profileSeq, goodsId</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 상품이름}}, {{작성자 프로필 id}}, {{상품코드}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1757,67 +1737,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>리뷰 콘텐츠 클릭</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>리뷰콘텐츠</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>page_id, click_text, profileSeq, goodsId, prd_review_score, prd_review_id</t>
+          <t>page_id, feed_writer, prd_code, prd_review_id</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 콘텐츠이름}}, {{작성자 프로필 id}}, {{상품코드}}, {{리뷰 별점}}, {{리뷰id}}</t>
+          <t>{{PageID}}, {{주인 프로필 id}}, {{상품코드}}, {{리뷰ID}}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>feed/profile/recommend</t>
+          <t>feed/profile/review</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>화면 조회</t>
+          <t>스토어 버튼 클릭</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>스토어버튼</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>page_id, feedSeq, profileSeq</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드 id}}, {{주인 프로필 id}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{버튼 이름}}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>feed/profile/recommend</t>
+          <t>feed/profile/review</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>탭 클릭</t>
+          <t>리뷰 상품 클릭</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1827,45 +1807,49 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>탭</t>
+          <t>리뷰상품</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>page_id, profileSeq, click_text</t>
+          <t>page_id, click_text, feed_writer, prd_code</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{주인 프로필 id}}, {{추천/피드/컬랙션/리뷰}}</t>
+          <t>{{page_id}}, {{클릭한 상품이름}}, {{작성자 프로필 id}}, {{상품코드}}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>feed/profile/recommend</t>
+          <t>feed/profile/review</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>스크롤</t>
+          <t>리뷰 콘텐츠 클릭</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>scroll</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>리뷰콘텐츠</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>page_id, feedSeq, profileSeq, scroll_rate</t>
+          <t>page_id, click_text, feed_writer, prd_code, prd_review_score, prd_review_id</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드 id}}, {{주인 프로필 id}}, {{scroll_rate}}</t>
+          <t>{{page_id}}, {{클릭한 콘텐츠이름}}, {{작성자 프로필 id}}, {{상품코드}}, {{리뷰 별점}}, {{리뷰id}}</t>
         </is>
       </c>
     </row>
@@ -1877,27 +1861,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>상품 태그 클릭</t>
+          <t>화면 조회</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>상품태그</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType, goodsId</t>
+          <t>page_id, feed_id, feed_writer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 상품태그명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{상품코드}}</t>
+          <t>{{page_id}}, {{피드 id}}, {{주인 프로필 id}}</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1889,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>챌린지 태그 클릭</t>
+          <t>탭 클릭</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1919,17 +1899,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>챌린지태그</t>
+          <t>탭</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType, challengeSeq</t>
+          <t>page_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 챌린지태그명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{챌린지 id}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{클릭 탭 이름}}</t>
         </is>
       </c>
     </row>
@@ -1941,27 +1921,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>더보기 클릭</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>게시물TEXT더보기</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, feed_writer, feed_id</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{{page_id}}, 더보기, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{주인 프로필 id}}, {{피드 id}}</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1949,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>세차장 위치 버튼 클릭</t>
+          <t>상품 태그 클릭</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1983,17 +1959,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>세차장위치버튼</t>
+          <t>상품태그</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type, prd_code</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{세차장명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 상품태그명}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{상품코드}}</t>
         </is>
       </c>
     </row>
@@ -2005,7 +1981,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>바로가기 클릭</t>
+          <t>챌린지 태그 클릭</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2015,85 +1991,93 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>바로가기</t>
+          <t>챌린지태그</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type, chal_id</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{휘슬 세차 바로가기 / 픽딜 바로가기}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 챌린지태그명}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{챌린지id}}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>feed/post/detail</t>
+          <t>feed/profile/recommend</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>화면 조회</t>
+          <t>더보기 클릭</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>게시물TEXT더보기</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>page_id, feedSeq, profileSeq</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드 id}}, {{피드 작성자 프로필id}}</t>
+          <t>{{page_id}}, 더보기, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>feed/post/detail</t>
+          <t>feed/profile/recommend</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>스크롤</t>
+          <t>세차장 아이콘 클릭</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>scroll</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>세차장위치버튼</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>page_id, feedSeq, profileSeq, scroll_rate</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{피드 id}}, {{주인 프로필 id}}, {{scroll_rate}}</t>
+          <t>{{page_id}}, {{버튼 이름}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>feed/post/detail</t>
+          <t>feed/profile/recommend</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>상품 태그 클릭</t>
+          <t>바로가기 클릭</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2103,17 +2087,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>상품태그</t>
+          <t>바로가기</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType, goodsId</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 상품태그명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{상품코드}}</t>
+          <t>{{page_id}}, {{버튼 이름}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -2125,27 +2109,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>챌린지 태그 클릭</t>
+          <t>화면 조회</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>챌린지태그</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType, challengeSeq</t>
+          <t>page_id, feed_id, feed_writer, like_cnt, comment_cnt</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 챌린지태그명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{챌린지 id}}</t>
+          <t>{{page_id}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{좋아요 수}}, {{댓글 수}}</t>
         </is>
       </c>
     </row>
@@ -2157,27 +2137,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>더보기 클릭</t>
+          <t>스크롤 (스크롤이 멈췄을 때 트래킹)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>게시물TEXT더보기</t>
-        </is>
-      </c>
+          <t>scroll</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, feed_id</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{{page_id}}, 더보기, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{피드 id}}</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2165,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>세차장 위치 버튼 클릭</t>
+          <t>상품 태그 클릭</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2199,17 +2175,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>세차장위치버튼</t>
+          <t>상품태그</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type, prd_code</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{세차장명}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 상품태그명}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{상품코드}}</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2197,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>바로가기 클릭</t>
+          <t>챌린지 태그 클릭</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2231,17 +2207,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>바로가기</t>
+          <t>챌린지태그</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>page_id, click_text, feedSeq, profileSeq, tag, likeCount, feedType</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type, chal_id</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{휘슬 세차 바로가기 / 픽딜 바로가기}}, {{피드 id}}, {{피드 작성자 프로필 id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
+          <t>{{page_id}}, {{클릭한 챌린지태그명}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}, {{챌린지id}}</t>
         </is>
       </c>
     </row>
@@ -2253,23 +2229,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>광고 노출</t>
+          <t>더보기 클릭</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>게시물TEXT더보기</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>page_id, ad_id</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, 더보기, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2261,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>광고 클릭</t>
+          <t>세차장 아이콘 클릭</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2291,91 +2271,171 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>광고</t>
+          <t>세차장위치버튼</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>page_id, click_text, ad_id</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 광고제목}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, {{버튼 이름}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>feed/message/notice</t>
+          <t>feed/post/detail</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>광고 노출</t>
+          <t>바로가기 클릭</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>세차장위치버튼</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>page_id, ad_id</t>
+          <t>page_id, click_text, feed_id, feed_writer, feed_tag, like_cnt, feed_type</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, {{버튼 이름}}, {{피드 id}}, {{피드 작성자 프로필id}}, {{게시글 내용 내의 해시태그}}, {{좋아요 수}}, {{피드 타입}}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>feed/message/notice</t>
+          <t>feed/post/detail</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>광고 클릭</t>
+          <t>광고 노출</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>광고</t>
-        </is>
-      </c>
+          <t>impression</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>page_id, click_text, ad_id</t>
+          <t>page_id, ad_id</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{{page_id}}, {{클릭한 광고 제목}}, {{네트워크 광고 ID}}</t>
+          <t>{{page_id}}, {{네트워크 광고 ID}}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>```</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+          <t>feed/post/detail</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>광고 클릭</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>page_id, ad_id, click_text</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>{{page_id}}, {{네트워크 광고 ID}}, {{클릭한 광고제목}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>feed/message/notice</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>광고 노출</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>page_id, ad_id</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>{{page_id}}, {{네트워크 광고 ID}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>feed/message/notice</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>광고 클릭</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>page_id, ad_id, click_text</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>{{page_id}}, {{네트워크 광고 ID}}, {{클릭한 광고제목}}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
